--- a/console/Hyper-Converged-IDC/HyperConvergedIDC-CPS-控制台翻译内容-1119补充（未翻译）.xlsx
+++ b/console/Hyper-Converged-IDC/HyperConvergedIDC-CPS-控制台翻译内容-1119补充（未翻译）.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2018.11\11.20\console-181119\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\19. 云物理服务器的控制台\第四次反馈\审校-景芳-QA2小时\上传github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,183 +57,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>超过用户累计购买数量，请调整购买数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人用户暂不支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前暂不对个人认证用户开放低价折扣优惠活动，请静待后续活动，或在用户管理页面升级为企业用户。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量超限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动期间仅限购买1台云物理服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在未支付订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有未支付订单，请在订单管理页面支付未支付订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关机成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅关机状态支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅运行状态支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅关机/运行状态支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅有公网IP的实例支持</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据或未搜索到相关数据请重新查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装系统成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creation Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable IPv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IPv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>超过用户累计购买数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超过用户累计购买数量，请调整购买数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人用户暂不支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前暂不对个人认证用户开放低价折扣优惠活动，请静待后续活动，或在用户管理页面升级为企业用户。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买数量超限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动期间仅限购买1台云物理服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在未支付订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您有未支付订单，请在订单管理页面支付未支付订单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开机成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关机成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅关机状态支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅运行状态支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅关机/运行状态支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅有公网IP的实例支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据或未搜索到相关数据请重新查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装系统成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Creation Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable IPv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Automatic Allocate IPv6 Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer to the</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation Guide for Detailed IPv6 settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public IPv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Public IPv6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Private IPv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exceed Accumulative Purchase Quantity of the User</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Exceed User's Accumulative Purchase Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exceed user's accumulative purchase quantity, please adjust.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At present, high discount promotion is not opened to certified individual users. Please wait for later promotions or upgrade to be an enterprise user on the User Management Page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support running status only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System re-installed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto assign IPv6 address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Detailed IPv6 settings,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please refer to the Operation Guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Individual User Not Supported</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>At present, the high discount promotion has not been opened to the certified individual user. Please wait for other promotions or upgrade to be the enterprise user in the user management page.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Exceed Purchase Quantity Limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Only 1 Cloud Physical Server can be purchased during the promotion.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Orders Unpaid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You have the order(s) unpaid. Please pay the orders in the order management page.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have order(s) unpaid. Please pay on the Order Management Page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Startup succeeded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shutdown succeeded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reboot succeeded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only support public IP instances</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please re-query if there is no data or no relevant data is found</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>System re-installation succeeded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exceed accumulative purchase quantity of the users. Please adjust the purchase quantity.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For shutdown status support only</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For running status support only</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>For shutdown/running status support only</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support shutdown status only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support shutdown/running status only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support public IP instances only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please re-query when no data is available or no relevant data is found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,13 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -332,14 +326,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>257810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>650553</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>650554</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>26589</xdr:rowOff>
     </xdr:to>
@@ -370,13 +364,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>334010</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>130448</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>118562</xdr:rowOff>
@@ -672,32 +666,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30" style="7" customWidth="1"/>
+    <col min="1" max="1" width="28.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -716,16 +710,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -744,16 +736,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -772,16 +762,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="33">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -800,20 +788,19 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -832,16 +819,14 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -860,16 +845,14 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -888,13 +871,10 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -912,142 +892,141 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="33">
+    </row>
+    <row r="9" spans="1:21" ht="33" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="99" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="33" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="49.5">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="99">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="33">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="49.5">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="33">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="33">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
